--- a/ExcelFiles/Phuc_VendorItemCatalog.xlsx
+++ b/ExcelFiles/Phuc_VendorItemCatalog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Phuc_VendorItemCatalog</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>Phuc Item 03</t>
   </si>
 </sst>
 </file>
@@ -154,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -222,58 +219,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -295,25 +247,10 @@
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1398,7 +1335,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:U4"/>
+  <dimension ref="A2:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1540,27 +1477,23 @@
       <c r="G3" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="H3" s="7">
-        <v>30</v>
-      </c>
+      <c r="H3" s="7"/>
       <c r="I3" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="J3" s="7">
-        <v>30</v>
-      </c>
+      <c r="J3" s="7"/>
       <c r="K3" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
       <c r="N3" t="s" s="6">
         <v>28</v>
       </c>
       <c r="O3" t="s" s="6">
         <v>29</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="8">
         <v>1</v>
       </c>
       <c r="Q3" t="s" s="6">
@@ -1569,64 +1502,9 @@
       <c r="R3" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="H4" s="12">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="J4" s="12">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="P4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="R4" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
